--- a/banco/tb_gestor_ar.xlsx
+++ b/banco/tb_gestor_ar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t xml:space="preserve">matricula</t>
   </si>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">DF</t>
   </si>
   <si>
-    <t xml:space="preserve">CDD RECANTO DAS EMAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Walter Silva Batista</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t xml:space="preserve">MG</t>
   </si>
   <si>
-    <t xml:space="preserve">MG/SE/COPER/GELOG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fabiano Aparecido Alves de Lucena</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t xml:space="preserve">MS</t>
   </si>
   <si>
-    <t xml:space="preserve">CTO CAMPO GRANDE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gislaine Colman Soares</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t xml:space="preserve">PR</t>
   </si>
   <si>
-    <t xml:space="preserve">PR/SE/CONEG/GECOM/SUCOM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maxwell Carcano da Silva</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
   </si>
   <si>
     <t xml:space="preserve">RR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDD BOA VISTA</t>
   </si>
   <si>
     <t xml:space="preserve">Odone Jose Fantinelli Junior</t>
@@ -742,10 +727,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +739,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,31 +922,28 @@
       <c r="H7" s="1" t="n">
         <v>70361750</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>80270190</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>60874401</v>
@@ -973,22 +954,22 @@
         <v>82787182</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>29168972</v>
@@ -999,22 +980,22 @@
         <v>83326430</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>74906902</v>
@@ -1025,22 +1006,22 @@
         <v>83765263</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>65095971</v>
@@ -1051,28 +1032,25 @@
         <v>84114592</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>31255982</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,28 +1058,25 @@
         <v>83315802</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>79008971</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,22 +1084,22 @@
         <v>84283645</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>78115906</v>
@@ -1135,22 +1110,22 @@
         <v>84535342</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>66645971</v>
@@ -1161,22 +1136,22 @@
         <v>84767707</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>58071900</v>
@@ -1187,22 +1162,22 @@
         <v>85079944</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7" t="n">
         <v>54355970</v>
@@ -1213,22 +1188,22 @@
         <v>88896102</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>64017973</v>
@@ -1239,28 +1214,25 @@
         <v>85647934</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>80002900</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,22 +1240,22 @@
         <v>83243356</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>20210900</v>
@@ -1294,22 +1266,22 @@
         <v>86277065</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>59010700</v>
@@ -1320,22 +1292,22 @@
         <v>85777099</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>76801599</v>
@@ -1346,28 +1318,25 @@
         <v>80547109</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>69301970</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,22 +1344,22 @@
         <v>86864998</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>91040970</v>
@@ -1401,22 +1370,22 @@
         <v>86892517</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>88110916</v>
@@ -1427,22 +1396,22 @@
         <v>87269317</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>49075010</v>
@@ -1453,22 +1422,22 @@
         <v>81093004</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>17015907</v>
@@ -1479,22 +1448,22 @@
         <v>89105362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>5314985</v>
@@ -1505,28 +1474,25 @@
         <v>83304240</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="H29" s="8" t="n">
         <v>77001128</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>77500446</v>
       </c>
     </row>
   </sheetData>
